--- a/hmm_application/config.xlsx
+++ b/hmm_application/config.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hmm_application/config.xlsx
+++ b/hmm_application/config.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="web_page" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>entity</t>
   </si>
@@ -42,9 +42,6 @@
     <t>CAL_DIST_QUITO_P.CARGA_TOT_1_CAL.AV</t>
   </si>
   <si>
-    <t>INF.GER_DEM-MAX_ELECTRICA DE GUAYAQUIL - EP</t>
-  </si>
-  <si>
     <t>Demanda Empresa Eléctrica Quito</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     </r>
   </si>
   <si>
-    <t>Deamanda Empresa Eléctrica Guayaquil</t>
-  </si>
-  <si>
     <t>despacho</t>
   </si>
   <si>
@@ -135,20 +129,145 @@
     <t>historic</t>
   </si>
   <si>
-    <t>SELECT t.Demanda MW  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DQUI' and Fecha between '{0}' and '{1}'</t>
-  </si>
-  <si>
-    <t>SELECT t.Demanda MW  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'EGYG' and Fecha between '{0}' and '{1}'</t>
-  </si>
-  <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>SELECT t.Central, t.Unidad, t.MV_Validado,  t.Fecha, t.Hora FROM SIVO.dbo.DV_Generacion t  where t.MV_Validado &gt; 0 and t.Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DQUI' and Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'EGYG' and Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>Demanda CNEL EP Guayaquil</t>
+  </si>
+  <si>
+    <t>centro-sur</t>
+  </si>
+  <si>
+    <t>Demanda EE. Centro Sur</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hmm_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EE.Centro_sur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.pkl</t>
+    </r>
+  </si>
+  <si>
+    <t>CAL_DIST_CENTRSUR_P.CARGA_TOT_1_CAL.AV</t>
+  </si>
+  <si>
+    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DRCS' and Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>EE. Quito</t>
+  </si>
+  <si>
+    <t>CNEL Guayaquil</t>
+  </si>
+  <si>
+    <t>Centro Sur</t>
+  </si>
+  <si>
+    <t>ambato</t>
+  </si>
+  <si>
+    <t>E.E. Ambato</t>
+  </si>
+  <si>
+    <t>Demanda E.E. Ambato</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hmm_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ambato</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.pkl</t>
+    </r>
+  </si>
+  <si>
+    <t>CAL_DIST_EMELEC_P.CARGA_TOT_1_CAL.AV</t>
+  </si>
+  <si>
+    <t>CAL_DIST_AMBATO_P.CARGA_TOT_1_CAL.AV</t>
+  </si>
+  <si>
+    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DAMB' and Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>n_comp_min</t>
+  </si>
+  <si>
+    <t>n_comp_max</t>
+  </si>
+  <si>
+    <t>n_interaction</t>
+  </si>
+  <si>
+    <t>Entrenamiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +291,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -192,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -215,20 +340,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,104 +664,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="7" max="7" width="128.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>160</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>140</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>140</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>140</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" s="6"/>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hmm_application/config.xlsx
+++ b/hmm_application/config.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E98E0700-E3E2-49F0-8520-C32C7137E507}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web_page" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>entity</t>
   </si>
@@ -45,6 +46,105 @@
     <t>Demanda Empresa Eléctrica Quito</t>
   </si>
   <si>
+    <t>demanda-nacional</t>
+  </si>
+  <si>
+    <t>electrica-quito</t>
+  </si>
+  <si>
+    <t>electrica-guayaquil</t>
+  </si>
+  <si>
+    <t>despacho</t>
+  </si>
+  <si>
+    <t>despacho-nacional-programado</t>
+  </si>
+  <si>
+    <t>historic</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DQUI' and Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'EGYG' and Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>Demanda CNEL EP Guayaquil</t>
+  </si>
+  <si>
+    <t>centro-sur</t>
+  </si>
+  <si>
+    <t>Demanda EE. Centro Sur</t>
+  </si>
+  <si>
+    <t>CAL_DIST_CENTRSUR_P.CARGA_TOT_1_CAL.AV</t>
+  </si>
+  <si>
+    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DRCS' and Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>EE. Quito</t>
+  </si>
+  <si>
+    <t>CNEL Guayaquil</t>
+  </si>
+  <si>
+    <t>Centro Sur</t>
+  </si>
+  <si>
+    <t>ambato</t>
+  </si>
+  <si>
+    <t>E.E. Ambato</t>
+  </si>
+  <si>
+    <t>Demanda E.E. Ambato</t>
+  </si>
+  <si>
+    <t>CAL_DIST_EMELEC_P.CARGA_TOT_1_CAL.AV</t>
+  </si>
+  <si>
+    <t>CAL_DIST_AMBATO_P.CARGA_TOT_1_CAL.AV</t>
+  </si>
+  <si>
+    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DAMB' and Fecha between '{0}' and '{1}'</t>
+  </si>
+  <si>
+    <t>Entrenamiento_2</t>
+  </si>
+  <si>
+    <t>n_comp_min_2</t>
+  </si>
+  <si>
+    <t>n_comp_max_2</t>
+  </si>
+  <si>
+    <t>n_interaction_2</t>
+  </si>
+  <si>
+    <t>Entrenamiento_1</t>
+  </si>
+  <si>
+    <t>n_comp_min_1</t>
+  </si>
+  <si>
+    <t>n_comp_max_1</t>
+  </si>
+  <si>
+    <t>n_interaction_1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -53,7 +153,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hmm_</t>
+      <t>hmm_1_</t>
     </r>
     <r>
       <rPr>
@@ -75,7 +175,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hmm_</t>
+      <t>hmm_1_</t>
     </r>
     <r>
       <rPr>
@@ -89,15 +189,6 @@
     </r>
   </si>
   <si>
-    <t>demanda-nacional</t>
-  </si>
-  <si>
-    <t>electrica-quito</t>
-  </si>
-  <si>
-    <t>electrica-guayaquil</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -106,7 +197,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hmm_</t>
+      <t>hmm_1_</t>
     </r>
     <r>
       <rPr>
@@ -120,36 +211,6 @@
     </r>
   </si>
   <si>
-    <t>despacho</t>
-  </si>
-  <si>
-    <t>despacho-nacional-programado</t>
-  </si>
-  <si>
-    <t>historic</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>SELECT t.Central, t.Unidad, t.MV_Validado,  t.Fecha, t.Hora FROM SIVO.dbo.DV_Generacion t  where t.MV_Validado &gt; 0 and t.Fecha between '{0}' and '{1}'</t>
-  </si>
-  <si>
-    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DQUI' and Fecha between '{0}' and '{1}'</t>
-  </si>
-  <si>
-    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'EGYG' and Fecha between '{0}' and '{1}'</t>
-  </si>
-  <si>
-    <t>Demanda CNEL EP Guayaquil</t>
-  </si>
-  <si>
-    <t>centro-sur</t>
-  </si>
-  <si>
-    <t>Demanda EE. Centro Sur</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -158,7 +219,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hmm_</t>
+      <t>hmm_1_</t>
     </r>
     <r>
       <rPr>
@@ -181,36 +242,6 @@
     </r>
   </si>
   <si>
-    <t>CAL_DIST_CENTRSUR_P.CARGA_TOT_1_CAL.AV</t>
-  </si>
-  <si>
-    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DRCS' and Fecha between '{0}' and '{1}'</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Nacional</t>
-  </si>
-  <si>
-    <t>EE. Quito</t>
-  </si>
-  <si>
-    <t>CNEL Guayaquil</t>
-  </si>
-  <si>
-    <t>Centro Sur</t>
-  </si>
-  <si>
-    <t>ambato</t>
-  </si>
-  <si>
-    <t>E.E. Ambato</t>
-  </si>
-  <si>
-    <t>Demanda E.E. Ambato</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -219,7 +250,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hmm_</t>
+      <t>hmm_1_</t>
     </r>
     <r>
       <rPr>
@@ -242,31 +273,16 @@
     </r>
   </si>
   <si>
-    <t>CAL_DIST_EMELEC_P.CARGA_TOT_1_CAL.AV</t>
-  </si>
-  <si>
-    <t>CAL_DIST_AMBATO_P.CARGA_TOT_1_CAL.AV</t>
-  </si>
-  <si>
-    <t>SELECT t.Demanda MW, t.Fecha, t.Hora  FROM SIVO.dbo.DV_Demanda t where UNegocio = 'DAMB' and Fecha between '{0}' and '{1}'</t>
-  </si>
-  <si>
-    <t>n_comp_min</t>
-  </si>
-  <si>
-    <t>n_comp_max</t>
-  </si>
-  <si>
-    <t>n_interaction</t>
-  </si>
-  <si>
-    <t>Entrenamiento</t>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SELECT t.MV_Validado,  t.Fecha, t.Hora FROM SIVO.dbo.DV_Generacion t  where t.MV_Validado &gt; 0 and t.Fecha between '{0}' and '{1}'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +319,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +329,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -383,7 +411,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,35 +695,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K4" sqref="K4"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" customWidth="1"/>
-    <col min="7" max="7" width="128.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="128.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -703,200 +739,272 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>41</v>
+      <c r="L1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>120</v>
-      </c>
-      <c r="J2">
-        <v>160</v>
-      </c>
-      <c r="K2">
+        <v>47</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1">
+        <v>110</v>
+      </c>
+      <c r="J2" s="1">
+        <v>140</v>
+      </c>
+      <c r="K2" s="1">
         <v>2</v>
       </c>
+      <c r="L2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1">
+        <v>110</v>
+      </c>
+      <c r="N2" s="1">
+        <v>140</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1">
+        <v>110</v>
+      </c>
+      <c r="J3" s="1">
+        <v>140</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1">
+        <v>110</v>
+      </c>
+      <c r="N3" s="1">
+        <v>140</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="1">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1">
+        <v>140</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1">
+        <v>110</v>
+      </c>
+      <c r="N4" s="1">
+        <v>140</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
+      <c r="D5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1">
+        <v>120</v>
+      </c>
+      <c r="J5" s="1">
         <v>140</v>
       </c>
-      <c r="K3">
+      <c r="K5" s="1">
         <v>2</v>
       </c>
+      <c r="L5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1">
+        <v>120</v>
+      </c>
+      <c r="N5" s="1">
+        <v>140</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>140</v>
-      </c>
-      <c r="K4">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1">
+        <v>80</v>
+      </c>
+      <c r="J6" s="1">
+        <v>120</v>
+      </c>
+      <c r="K6" s="1">
         <v>2</v>
       </c>
+      <c r="L6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="1">
+        <v>80</v>
+      </c>
+      <c r="N6" s="1">
+        <v>120</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>140</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>80</v>
-      </c>
-      <c r="J6">
-        <v>120</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G7" s="7"/>
     </row>
   </sheetData>
